--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf15-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf15-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +531,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06665</v>
+        <v>0.0005903333333333333</v>
       </c>
       <c r="H2">
-        <v>0.19995</v>
+        <v>0.001771</v>
       </c>
       <c r="I2">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5555316666666666</v>
+        <v>0.1817723333333333</v>
       </c>
       <c r="N2">
-        <v>1.666595</v>
+        <v>0.5453170000000001</v>
       </c>
       <c r="O2">
-        <v>0.01938483203642842</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="P2">
-        <v>0.01938483203642843</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="Q2">
-        <v>0.03702618558333333</v>
+        <v>0.0001073062674444444</v>
       </c>
       <c r="R2">
-        <v>0.33323567025</v>
+        <v>0.0009657564070000001</v>
       </c>
       <c r="S2">
-        <v>0.01399206237115764</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="T2">
-        <v>0.01399206237115765</v>
+        <v>0.008966262009224884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,294 +593,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06665</v>
+        <v>0.0005903333333333333</v>
       </c>
       <c r="H3">
-        <v>0.19995</v>
+        <v>0.001771</v>
       </c>
       <c r="I3">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1817723333333333</v>
+        <v>20.09115</v>
       </c>
       <c r="N3">
-        <v>0.5453170000000001</v>
+        <v>60.27345</v>
       </c>
       <c r="O3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="P3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907752</v>
       </c>
       <c r="Q3">
-        <v>0.01211512601666667</v>
+        <v>0.01186047555</v>
       </c>
       <c r="R3">
-        <v>0.10903613415</v>
+        <v>0.10674427995</v>
       </c>
       <c r="S3">
-        <v>0.004578262550921234</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="T3">
-        <v>0.004578262550921234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.06665</v>
-      </c>
-      <c r="H4">
-        <v>0.19995</v>
-      </c>
-      <c r="I4">
-        <v>0.7218046741319933</v>
-      </c>
-      <c r="J4">
-        <v>0.7218046741319933</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>27.92075533333333</v>
-      </c>
-      <c r="N4">
-        <v>83.762266</v>
-      </c>
-      <c r="O4">
-        <v>0.9742723681522142</v>
-      </c>
-      <c r="P4">
-        <v>0.9742723681522143</v>
-      </c>
-      <c r="Q4">
-        <v>1.860918342966667</v>
-      </c>
-      <c r="R4">
-        <v>16.7482650867</v>
-      </c>
-      <c r="S4">
-        <v>0.7032343492099145</v>
-      </c>
-      <c r="T4">
-        <v>0.7032343492099145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.025688</v>
-      </c>
-      <c r="H5">
-        <v>0.07706399999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="J5">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.5555316666666666</v>
-      </c>
-      <c r="N5">
-        <v>1.666595</v>
-      </c>
-      <c r="O5">
-        <v>0.01938483203642842</v>
-      </c>
-      <c r="P5">
-        <v>0.01938483203642843</v>
-      </c>
-      <c r="Q5">
-        <v>0.01427049745333333</v>
-      </c>
-      <c r="R5">
-        <v>0.12843447708</v>
-      </c>
-      <c r="S5">
-        <v>0.005392769665270781</v>
-      </c>
-      <c r="T5">
-        <v>0.005392769665270782</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.025688</v>
-      </c>
-      <c r="H6">
-        <v>0.07706399999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="J6">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.1817723333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.5453170000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.006342799811357313</v>
-      </c>
-      <c r="P6">
-        <v>0.006342799811357313</v>
-      </c>
-      <c r="Q6">
-        <v>0.004669367698666667</v>
-      </c>
-      <c r="R6">
-        <v>0.042024309288</v>
-      </c>
-      <c r="S6">
-        <v>0.001764537260436079</v>
-      </c>
-      <c r="T6">
-        <v>0.001764537260436079</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.025688</v>
-      </c>
-      <c r="H7">
-        <v>0.07706399999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="J7">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>27.92075533333333</v>
-      </c>
-      <c r="N7">
-        <v>83.762266</v>
-      </c>
-      <c r="O7">
-        <v>0.9742723681522142</v>
-      </c>
-      <c r="P7">
-        <v>0.9742723681522143</v>
-      </c>
-      <c r="Q7">
-        <v>0.7172283630026666</v>
-      </c>
-      <c r="R7">
-        <v>6.455055267023999</v>
-      </c>
-      <c r="S7">
-        <v>0.2710380189422998</v>
-      </c>
-      <c r="T7">
-        <v>0.2710380189422998</v>
+        <v>0.9910337379907752</v>
       </c>
     </row>
   </sheetData>
